--- a/documentation/Logs/TeamLog.xlsx
+++ b/documentation/Logs/TeamLog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stormfront/Desktop/Team7Quiz/Logs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stormfront/Desktop/GITHUB/CranewareQuizzingTeam7/documentation/Logs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E5BC3D7-68A8-D545-95A2-455FBE485271}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE232E85-9F56-6144-BB2E-43BAFB2EEDA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="960" windowWidth="15080" windowHeight="13920" xr2:uid="{49C18336-9E69-5D41-ABE0-11E523900E7F}"/>
+    <workbookView xWindow="480" yWindow="960" windowWidth="25120" windowHeight="13920" xr2:uid="{49C18336-9E69-5D41-ABE0-11E523900E7F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="41">
   <si>
     <t>Aditya Menon</t>
   </si>
@@ -117,6 +117,57 @@
   <si>
     <t>Database research and analysis/
 Set up DB(Communicate with backend)</t>
+  </si>
+  <si>
+    <t>Set up Pusher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quality assurance
+</t>
+  </si>
+  <si>
+    <t>Database research and analysis/
+Create queries</t>
+  </si>
+  <si>
+    <t>Set up backend/Implement basic functions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Set up backend/
+</t>
+  </si>
+  <si>
+    <t>Report &amp; Logs/Documents/User Testing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pusher/debug due to problem </t>
+  </si>
+  <si>
+    <t>DevOps/Setting up continuous integration</t>
+  </si>
+  <si>
+    <t>Quality assurance/Setting up continuos integration</t>
+  </si>
+  <si>
+    <t>DataBase/ Create queries to be handled and passed by the backend/Communicate with backend</t>
+  </si>
+  <si>
+    <t>Backend/Communicate with database relay information as to what is needed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Backend/Communicate with database relay information as to what is needed/User testing </t>
+  </si>
+  <si>
+    <t>Work on frontend regarding client feeback/</t>
+  </si>
+  <si>
+    <t>Work on Frontend regarding client feeback/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Work on frontend regarding client feeback/ </t>
+  </si>
+  <si>
+    <t>Report/User Testing</t>
   </si>
 </sst>
 </file>
@@ -157,13 +208,13 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -479,10 +530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20B6129D-E31A-8A4E-BDE0-6223D18B57FD}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -491,12 +542,12 @@
     <col min="2" max="2" width="29.33203125" customWidth="1"/>
     <col min="3" max="3" width="27.1640625" customWidth="1"/>
     <col min="4" max="4" width="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.83203125" customWidth="1"/>
-    <col min="6" max="6" width="20.1640625" customWidth="1"/>
-    <col min="7" max="7" width="18.6640625" customWidth="1"/>
+    <col min="5" max="6" width="36.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="34.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B1" s="2">
         <v>44109</v>
       </c>
@@ -513,10 +564,19 @@
         <v>44113</v>
       </c>
       <c r="G1" s="1">
-        <v>44114</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+        <v>44116</v>
+      </c>
+      <c r="H1" s="1">
+        <v>44117</v>
+      </c>
+      <c r="I1" s="1">
+        <v>44118</v>
+      </c>
+      <c r="J1" s="1">
+        <v>44119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -529,117 +589,267 @@
       <c r="D2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3"/>
+      <c r="B3" s="5"/>
       <c r="C3" t="s">
         <v>17</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3"/>
+      <c r="B4" s="5"/>
       <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="E4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="3"/>
+      <c r="B5" s="5"/>
       <c r="C5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="3"/>
+      <c r="B6" s="5"/>
       <c r="C6" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="3"/>
+      <c r="B7" s="5"/>
       <c r="C7" t="s">
         <v>15</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="3"/>
+      <c r="B8" s="5"/>
       <c r="C8" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="3"/>
+      <c r="B9" s="5"/>
       <c r="C9" t="s">
         <v>20</v>
       </c>
       <c r="D9" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="3"/>
+      <c r="B10" s="5"/>
       <c r="C10" t="s">
         <v>20</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="3"/>
+      <c r="B11" s="5"/>
       <c r="C11" t="s">
         <v>16</v>
       </c>
       <c r="D11" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="52" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C12" s="5" t="s">
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="52" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C12" s="3" t="s">
         <v>11</v>
       </c>
     </row>
